--- a/app/vistas/Import/ejemploDoc.xlsx
+++ b/app/vistas/Import/ejemploDoc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CESARM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\neo\app\vistas\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D62E23E-D31F-44CA-810D-4093E5616DC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577C2618-22C5-466A-8519-04BEA9153DB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{55599993-8CC0-4731-8C75-F355957A80E5}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{55599993-8CC0-4731-8C75-F355957A80E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>0011</t>
   </si>
@@ -217,6 +217,30 @@
   </si>
   <si>
     <t>doc10</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>celular</t>
+  </si>
+  <si>
+    <t>dni</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>codigocontrato</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -575,11 +599,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4627F572-0A4F-41ED-8B7B-7E8C3F796FA1}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -592,269 +614,295 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1">
-        <v>1010</v>
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="1">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3" s="1">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="1">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="1">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="1">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="1">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H11" s="1">
         <v>1019</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
